--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/ProprietaryDataFiles/Syndication_InvalidFile10.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/ProprietaryDataFiles/Syndication_InvalidFile10.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\achyzh\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\ProprietaryDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\ProprietaryDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965C3B52-40A7-4D59-B532-B71070985467}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{360F983F-DDC9-4B4D-861C-8122A2A1873C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syndicator Inventory" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Syndicator Header</t>
   </si>
@@ -102,12 +95,6 @@
   </si>
   <si>
     <t>House</t>
-  </si>
-  <si>
-    <t>HH Avg Rtg</t>
-  </si>
-  <si>
-    <t>HH Avg Imps (000)</t>
   </si>
   <si>
     <t>HH VPVH</t>
@@ -598,6 +585,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -607,20 +600,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,7 +945,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="24" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1017,19 +1004,19 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43" t="str">
+      <c r="D2" s="37"/>
+      <c r="E2" s="41" t="str">
         <f>IF(COUNTA($E$3:$E10) &gt; 0, "Errors", "")</f>
         <v/>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
@@ -1058,12 +1045,12 @@
         <v>4</v>
       </c>
       <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="4"/>
@@ -1092,12 +1079,12 @@
         <v>6</v>
       </c>
       <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="4"/>
@@ -1126,12 +1113,12 @@
         <v>6</v>
       </c>
       <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
@@ -1160,12 +1147,12 @@
         <v>9</v>
       </c>
       <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
@@ -1194,12 +1181,12 @@
         <v>25.123000000000001</v>
       </c>
       <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="4"/>
@@ -1228,12 +1215,12 @@
         <v>12</v>
       </c>
       <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="4"/>
@@ -1260,12 +1247,12 @@
         <v>12</v>
       </c>
       <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
@@ -1290,16 +1277,16 @@
       <c r="B10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
@@ -1448,16 +1435,16 @@
         <v>21</v>
       </c>
       <c r="F15" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="I15" s="25" t="s">
         <v>26</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>28</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
@@ -32804,14 +32791,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="E5:J5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="E10:J10"/>
@@ -32822,6 +32801,14 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E7:J7"/>
     <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:Z1048576">
     <cfRule type="expression" dxfId="3" priority="37">
